--- a/Questionaire_Hellink.xlsx
+++ b/Questionaire_Hellink.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55ADF10B-D006-4DEE-A6DD-BB36366356D9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -18,9 +19,75 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <si>
+    <t>Questionnaire de Playtest Hellink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Informations global </t>
+  </si>
+  <si>
+    <t>Nom (optinel)</t>
+  </si>
+  <si>
+    <t>Prénom</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Genre 
+(Homme/Femme)</t>
+  </si>
+  <si>
+    <t>Information liées aux jeux vidéo</t>
+  </si>
+  <si>
+    <t>Fréquence 
+de jeu</t>
+  </si>
+  <si>
+    <t>Genre de 
+jeu préféré</t>
+  </si>
+  <si>
+    <t>Jeu préféré</t>
+  </si>
+  <si>
+    <t>Plateforme de jeu préféré (pc,ps4,xbox one…)</t>
+  </si>
+  <si>
+    <t>Fréquence d'utilisation de internet</t>
+  </si>
+  <si>
+    <t>Informations utile 
+par rapport au jeu testé</t>
+  </si>
+  <si>
+    <t>Information par rapport au test</t>
+  </si>
+  <si>
+    <t>Noté votre amusement durant le test sur une échelle de 1 à 5 (5 positif, 1 négatif)</t>
+  </si>
+  <si>
+    <t>Noté votre facilité à utilisé le jeu (commande) sur une échelle de 1 à 5 (5 positif, 1 négatif)</t>
+  </si>
+  <si>
+    <t>Avez-vous lu tout le textes, un partie ou pas lu le texte</t>
+  </si>
+  <si>
+    <t>D'après vous que voulai mettre en avant Hellink</t>
+  </si>
+  <si>
+    <t>Sur une échelle de 1 à 5 avez-vous appris des choses (5 positif, 1 négatif)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +95,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -45,12 +137,264 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +674,262 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="10" width="14.28515625" customWidth="1"/>
+    <col min="11" max="11" width="21.42578125" customWidth="1"/>
+    <col min="12" max="12" width="28.5703125" customWidth="1"/>
+    <col min="13" max="15" width="21.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:15" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="27"/>
+    </row>
+    <row r="4" spans="1:15" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" s="30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="4"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="5"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="5"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="5"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="5"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="5"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="5"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="5"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="5"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="5"/>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="K3:O3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Questionaire_Hellink.xlsx
+++ b/Questionaire_Hellink.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55ADF10B-D006-4DEE-A6DD-BB36366356D9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9066CB24-996C-4C49-8091-0F29D2FFE5F7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="21">
   <si>
     <t>Questionnaire de Playtest Hellink</t>
   </si>
@@ -81,6 +81,12 @@
   </si>
   <si>
     <t>Sur une échelle de 1 à 5 avez-vous appris des choses (5 positif, 1 négatif)</t>
+  </si>
+  <si>
+    <t>écriver vos commentaires :</t>
+  </si>
+  <si>
+    <t>écrivez vos commentaires :</t>
   </si>
 </sst>
 </file>
@@ -103,7 +109,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -128,6 +134,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="13">
     <border>
@@ -321,7 +333,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -335,6 +347,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -344,15 +389,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -362,21 +398,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -386,14 +407,32 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -675,11 +714,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,70 +736,70 @@
     </row>
     <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:15" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="17" t="s">
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="23" t="s">
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="K3" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="27"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="30"/>
     </row>
     <row r="4" spans="1:15" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="24" t="s">
+      <c r="J4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="28" t="s">
+      <c r="K4" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="29" t="s">
+      <c r="L4" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="29" t="s">
+      <c r="M4" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="29" t="s">
+      <c r="N4" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="30" t="s">
+      <c r="O4" s="21" t="s">
         <v>18</v>
       </c>
     </row>
@@ -924,11 +963,192 @@
       <c r="N14" s="7"/>
       <c r="O14" s="8"/>
     </row>
+    <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="39"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="32"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="33"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18" s="32"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="33"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B19" s="32"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="33"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20" s="32"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="33"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B21" s="32"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="33"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B22" s="32"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="33"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B23" s="32"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="33"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B24" s="32"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="33"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B25" s="32"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="33"/>
+    </row>
+    <row r="26" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="34"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
+      <c r="O26" s="36"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="K3:O3"/>
+    <mergeCell ref="B16:O16"/>
+    <mergeCell ref="B17:O26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Questionaire_Hellink.xlsx
+++ b/Questionaire_Hellink.xlsx
@@ -3,24 +3,30 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9066CB24-996C-4C49-8091-0F29D2FFE5F7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43872C79-B153-4ACB-907A-2557F3209AF5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="96">
   <si>
     <t>Questionnaire de Playtest Hellink</t>
   </si>
@@ -83,10 +89,245 @@
     <t>Sur une échelle de 1 à 5 avez-vous appris des choses (5 positif, 1 négatif)</t>
   </si>
   <si>
-    <t>écriver vos commentaires :</t>
-  </si>
-  <si>
     <t>écrivez vos commentaires :</t>
+  </si>
+  <si>
+    <t>Christine</t>
+  </si>
+  <si>
+    <t>Femme</t>
+  </si>
+  <si>
+    <t>très rarement</t>
+  </si>
+  <si>
+    <t>Die hard trilogie</t>
+  </si>
+  <si>
+    <t>ps1</t>
+  </si>
+  <si>
+    <t>Laura</t>
+  </si>
+  <si>
+    <t>Plusieurs heures 
+par mois</t>
+  </si>
+  <si>
+    <t>tous les jours</t>
+  </si>
+  <si>
+    <t>Cyril</t>
+  </si>
+  <si>
+    <t>Homme</t>
+  </si>
+  <si>
+    <t>Plusieur heures 
+par semaines</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>une partie</t>
+  </si>
+  <si>
+    <t>Gaillard</t>
+  </si>
+  <si>
+    <t>Victor</t>
+  </si>
+  <si>
+    <t>sport</t>
+  </si>
+  <si>
+    <t>FIFA</t>
+  </si>
+  <si>
+    <t>ps4</t>
+  </si>
+  <si>
+    <t>Vail</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>Plusieurs heures 
+par semaines</t>
+  </si>
+  <si>
+    <t>gestion</t>
+  </si>
+  <si>
+    <t>Theme hospital</t>
+  </si>
+  <si>
+    <t>pc</t>
+  </si>
+  <si>
+    <t>tout</t>
+  </si>
+  <si>
+    <t>Davignon</t>
+  </si>
+  <si>
+    <t>Jacqueline</t>
+  </si>
+  <si>
+    <t>ocasionnellement</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>Angry bird</t>
+  </si>
+  <si>
+    <t>pas de 
+préférence</t>
+  </si>
+  <si>
+    <t>God of war</t>
+  </si>
+  <si>
+    <t>ps3, ps4</t>
+  </si>
+  <si>
+    <t>Clavet</t>
+  </si>
+  <si>
+    <t>rpg</t>
+  </si>
+  <si>
+    <t>Skyrim</t>
+  </si>
+  <si>
+    <t>Duval</t>
+  </si>
+  <si>
+    <t>Pauline</t>
+  </si>
+  <si>
+    <t>fps</t>
+  </si>
+  <si>
+    <t>Call of duty</t>
+  </si>
+  <si>
+    <t>xbox one</t>
+  </si>
+  <si>
+    <t>Boulé</t>
+  </si>
+  <si>
+    <t>Tristan</t>
+  </si>
+  <si>
+    <t>presque tout</t>
+  </si>
+  <si>
+    <t>Estelle</t>
+  </si>
+  <si>
+    <t>Mario</t>
+  </si>
+  <si>
+    <t>aucune</t>
+  </si>
+  <si>
+    <t>multijoueur</t>
+  </si>
+  <si>
+    <t>Overwatch</t>
+  </si>
+  <si>
+    <t>presque tous les jours</t>
+  </si>
+  <si>
+    <t>une partie au début</t>
+  </si>
+  <si>
+    <t>cherché des informations et vérifier les sources</t>
+  </si>
+  <si>
+    <t>utiliser internet</t>
+  </si>
+  <si>
+    <t>chercher des informations correct sur internet</t>
+  </si>
+  <si>
+    <t>cherché des informations et vérifier leurs sources</t>
+  </si>
+  <si>
+    <t>faire des recherches sur internet 
+et ne pas croire tout ce qui ce dit</t>
+  </si>
+  <si>
+    <t>faire des recherche et vérifier les sources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">faire des recherches  internet </t>
+  </si>
+  <si>
+    <t>faire des recherches et faire attention aux sources</t>
+  </si>
+  <si>
+    <t>comment faire des recherches internet pertinantes</t>
+  </si>
+  <si>
+    <t>faire des recherches et vérifier les sources</t>
+  </si>
+  <si>
+    <t>Vérifier vous vos sources 
+lors de recherche et à quel fréquence</t>
+  </si>
+  <si>
+    <t>non très peu</t>
+  </si>
+  <si>
+    <t>non sauf quand c'est 
+une information importante</t>
+  </si>
+  <si>
+    <t>oui régulièrement</t>
+  </si>
+  <si>
+    <t>non pas vraiment</t>
+  </si>
+  <si>
+    <t>non sauf pour 
+les devoirs</t>
+  </si>
+  <si>
+    <t>oui quelques fois</t>
+  </si>
+  <si>
+    <t>oui mais seulement 
+les recherches importantes</t>
+  </si>
+  <si>
+    <t>non rarement</t>
+  </si>
+  <si>
+    <t>oui toujours</t>
+  </si>
+  <si>
+    <t>uniquement pour 
+les infos importantes</t>
+  </si>
+  <si>
+    <t>*jeu avec un conept sympa, mais trop ennuyeux    *utile pour les personnes ne sachant pas utiliser internet    *plus de personnes devrait jouer à ce jeu et apprendre à vérifier leurs sources    *jeu intéressant    *trop d'informations en même temps</t>
+  </si>
+  <si>
+    <t>Avez-vous essayé d'avoir le meilleur score</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>oui</t>
   </si>
 </sst>
 </file>
@@ -141,7 +382,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -288,13 +529,74 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -303,10 +605,8 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <right/>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -315,16 +615,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <left/>
+      <right/>
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -333,28 +629,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -362,77 +647,155 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -714,441 +1077,801 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="10" width="14.28515625" customWidth="1"/>
-    <col min="11" max="11" width="21.42578125" customWidth="1"/>
-    <col min="12" max="12" width="28.5703125" customWidth="1"/>
-    <col min="13" max="15" width="21.42578125" customWidth="1"/>
+    <col min="2" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
+    <col min="9" max="10" width="14.28515625" customWidth="1"/>
+    <col min="11" max="11" width="20" customWidth="1"/>
+    <col min="12" max="12" width="21.42578125" customWidth="1"/>
+    <col min="13" max="13" width="28.5703125" customWidth="1"/>
+    <col min="14" max="16" width="21.42578125" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:15" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="22" t="s">
+    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:17" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="25" t="s">
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="17" t="s">
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="28" t="s">
+      <c r="K3" s="52"/>
+      <c r="L3" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="30"/>
-    </row>
-    <row r="4" spans="1:15" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="11" t="s">
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="41"/>
+    </row>
+    <row r="4" spans="1:17" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="L4" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="20" t="s">
+      <c r="M4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="20" t="s">
+      <c r="N4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="20" t="s">
+      <c r="O4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="21" t="s">
+      <c r="P4" s="7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="4"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="5"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="4"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="5"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="4"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="5"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="4"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="5"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="4"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="5"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="4"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="5"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="4"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="5"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="4"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="5"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="4"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="5"/>
-    </row>
-    <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="8"/>
-    </row>
-    <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="37" t="s">
+      <c r="Q4" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="B5" s="9"/>
+      <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="39"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="32"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="33"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="32"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="33"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="32"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="33"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="32"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="33"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="32"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="33"/>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="32"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="33"/>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="32"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="33"/>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="32"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="33"/>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="32"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="33"/>
-    </row>
-    <row r="26" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="34"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="36"/>
+      <c r="D5" s="15">
+        <v>46</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="L5" s="28">
+        <v>3</v>
+      </c>
+      <c r="M5" s="29">
+        <v>4</v>
+      </c>
+      <c r="N5" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="P5" s="29">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="30" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="B6" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="16">
+        <v>22</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="K6" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" s="28">
+        <v>1</v>
+      </c>
+      <c r="M6" s="29">
+        <v>5</v>
+      </c>
+      <c r="N6" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="O6" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="P6" s="29">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="30" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="B7" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="16">
+        <v>19</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" s="28">
+        <v>2</v>
+      </c>
+      <c r="M7" s="29">
+        <v>5</v>
+      </c>
+      <c r="N7" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="O7" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="P7" s="29">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="30" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="B8" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="16">
+        <v>39</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="L8" s="28">
+        <v>3</v>
+      </c>
+      <c r="M8" s="29">
+        <v>4</v>
+      </c>
+      <c r="N8" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="O8" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="P8" s="29">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="30" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="B9" s="17"/>
+      <c r="C9" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="16">
+        <v>16</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="L9" s="28">
+        <v>3</v>
+      </c>
+      <c r="M9" s="29">
+        <v>5</v>
+      </c>
+      <c r="N9" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="O9" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="P9" s="29">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="30" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="B10" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="16">
+        <v>21</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="L10" s="28">
+        <v>3</v>
+      </c>
+      <c r="M10" s="29">
+        <v>5</v>
+      </c>
+      <c r="N10" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="O10" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="P10" s="29">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="30" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="16">
+        <v>16</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="L11" s="28">
+        <v>2</v>
+      </c>
+      <c r="M11" s="29">
+        <v>5</v>
+      </c>
+      <c r="N11" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="O11" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="P11" s="29">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="30" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="B12" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="16">
+        <v>18</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="L12" s="28">
+        <v>2</v>
+      </c>
+      <c r="M12" s="29">
+        <v>5</v>
+      </c>
+      <c r="N12" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="O12" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="P12" s="29">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="30" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="B13" s="17"/>
+      <c r="C13" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="16">
+        <v>23</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="L13" s="28">
+        <v>3</v>
+      </c>
+      <c r="M13" s="29">
+        <v>4</v>
+      </c>
+      <c r="N13" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="O13" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="P13" s="29">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="30" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="20"/>
+      <c r="C14" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="21">
+        <v>19</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="I14" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="J14" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="L14" s="31">
+        <v>2</v>
+      </c>
+      <c r="M14" s="32">
+        <v>5</v>
+      </c>
+      <c r="N14" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="O14" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="P14" s="32">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="33" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B16" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="43"/>
+      <c r="O16" s="43"/>
+      <c r="P16" s="44"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B17" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="46"/>
+      <c r="P17" s="47"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B18" s="45"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="47"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B19" s="45"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="46"/>
+      <c r="P19" s="47"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B20" s="45"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="46"/>
+      <c r="O20" s="46"/>
+      <c r="P20" s="47"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B21" s="45"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="46"/>
+      <c r="O21" s="46"/>
+      <c r="P21" s="47"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B22" s="45"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="46"/>
+      <c r="O22" s="46"/>
+      <c r="P22" s="47"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B23" s="45"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="46"/>
+      <c r="P23" s="47"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B24" s="45"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="46"/>
+      <c r="O24" s="46"/>
+      <c r="P24" s="47"/>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B25" s="45"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="46"/>
+      <c r="O25" s="46"/>
+      <c r="P25" s="47"/>
+    </row>
+    <row r="26" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="48"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="50"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="F3:I3"/>
-    <mergeCell ref="K3:O3"/>
-    <mergeCell ref="B16:O16"/>
-    <mergeCell ref="B17:O26"/>
+    <mergeCell ref="B16:P16"/>
+    <mergeCell ref="B17:P26"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:Q3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Questionaire_Hellink.xlsx
+++ b/Questionaire_Hellink.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43872C79-B153-4ACB-907A-2557F3209AF5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DAC1A48-D817-48E6-922B-198F51357FC7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="97">
   <si>
     <t>Questionnaire de Playtest Hellink</t>
   </si>
@@ -328,13 +328,16 @@
   </si>
   <si>
     <t>oui</t>
+  </si>
+  <si>
+    <t>Anthony Lamour</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -349,8 +352,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Bahnschrift SemiBold"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -381,6 +390,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="18">
     <border>
@@ -629,48 +644,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -678,9 +663,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -692,64 +674,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -779,23 +719,95 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -803,6 +815,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFDDDDDD"/>
+      <color rgb="FFC9152E"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1077,16 +1095,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q13" sqref="Q13"/>
+      <selection pane="bottomLeft" activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="5" width="14.28515625" customWidth="1"/>
+    <col min="1" max="5" width="14.28515625" customWidth="1"/>
     <col min="6" max="6" width="17.140625" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" customWidth="1"/>
     <col min="8" max="8" width="17.140625" customWidth="1"/>
@@ -1105,764 +1123,769 @@
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:17" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="37" t="s">
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="51" t="s">
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="52"/>
-      <c r="L3" s="55" t="s">
+      <c r="K3" s="33"/>
+      <c r="L3" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="41"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="34"/>
     </row>
     <row r="4" spans="1:17" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="I4" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="27" t="s">
+      <c r="J4" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="L4" s="56" t="s">
+      <c r="L4" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="M4" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="N4" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="O4" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="P4" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="Q4" s="8" t="s">
+      <c r="Q4" s="42" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="B5" s="9"/>
-      <c r="C5" s="10" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="5">
         <v>46</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="18" t="s">
+      <c r="I5" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="J5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="18" t="s">
+      <c r="K5" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="L5" s="28">
+      <c r="L5" s="13">
         <v>3</v>
       </c>
-      <c r="M5" s="29">
+      <c r="M5" s="44">
         <v>4</v>
       </c>
-      <c r="N5" s="29" t="s">
+      <c r="N5" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="O5" s="24" t="s">
+      <c r="O5" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="P5" s="29">
+      <c r="P5" s="14">
         <v>4</v>
       </c>
-      <c r="Q5" s="30" t="s">
+      <c r="Q5" s="54" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="6">
         <v>22</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="I6" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="19" t="s">
+      <c r="J6" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="K6" s="53" t="s">
+      <c r="K6" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="L6" s="28">
+      <c r="L6" s="13">
         <v>1</v>
       </c>
-      <c r="M6" s="29">
+      <c r="M6" s="44">
         <v>5</v>
       </c>
-      <c r="N6" s="24" t="s">
+      <c r="N6" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="O6" s="24" t="s">
+      <c r="O6" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="P6" s="29">
+      <c r="P6" s="14">
         <v>2</v>
       </c>
-      <c r="Q6" s="30" t="s">
+      <c r="Q6" s="54" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="6">
         <v>19</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="I7" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="17" t="s">
+      <c r="J7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="K7" s="18" t="s">
+      <c r="K7" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="L7" s="28">
+      <c r="L7" s="13">
         <v>2</v>
       </c>
-      <c r="M7" s="29">
+      <c r="M7" s="44">
         <v>5</v>
       </c>
-      <c r="N7" s="29" t="s">
+      <c r="N7" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="O7" s="24" t="s">
+      <c r="O7" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="P7" s="29">
+      <c r="P7" s="14">
         <v>3</v>
       </c>
-      <c r="Q7" s="30" t="s">
+      <c r="Q7" s="54" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="6">
         <v>39</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="I8" s="18" t="s">
+      <c r="I8" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="J8" s="19" t="s">
+      <c r="J8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="K8" s="18" t="s">
+      <c r="K8" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="L8" s="28">
+      <c r="L8" s="13">
         <v>3</v>
       </c>
-      <c r="M8" s="29">
+      <c r="M8" s="44">
         <v>4</v>
       </c>
-      <c r="N8" s="29" t="s">
+      <c r="N8" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="O8" s="24" t="s">
+      <c r="O8" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="P8" s="29">
+      <c r="P8" s="14">
         <v>4</v>
       </c>
-      <c r="Q8" s="30" t="s">
+      <c r="Q8" s="54" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="B9" s="17"/>
-      <c r="C9" s="16" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="6">
         <v>16</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I9" s="18" t="s">
+      <c r="I9" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="J9" s="17" t="s">
+      <c r="J9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="K9" s="53" t="s">
+      <c r="K9" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="L9" s="28">
+      <c r="L9" s="13">
         <v>3</v>
       </c>
-      <c r="M9" s="29">
+      <c r="M9" s="44">
         <v>5</v>
       </c>
-      <c r="N9" s="29" t="s">
+      <c r="N9" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="O9" s="24" t="s">
+      <c r="O9" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="P9" s="29">
+      <c r="P9" s="14">
         <v>4</v>
       </c>
-      <c r="Q9" s="30" t="s">
+      <c r="Q9" s="54" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="6">
         <v>21</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="I10" s="18" t="s">
+      <c r="I10" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="J10" s="19" t="s">
+      <c r="J10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="53" t="s">
+      <c r="K10" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="L10" s="28">
+      <c r="L10" s="13">
         <v>3</v>
       </c>
-      <c r="M10" s="29">
+      <c r="M10" s="44">
         <v>5</v>
       </c>
-      <c r="N10" s="29" t="s">
+      <c r="N10" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="O10" s="24" t="s">
+      <c r="O10" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="P10" s="29">
+      <c r="P10" s="14">
         <v>2</v>
       </c>
-      <c r="Q10" s="30" t="s">
+      <c r="Q10" s="54" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="6">
         <v>16</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="I11" s="18" t="s">
+      <c r="I11" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="J11" s="17" t="s">
+      <c r="J11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="53" t="s">
+      <c r="K11" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="L11" s="28">
+      <c r="L11" s="13">
         <v>2</v>
       </c>
-      <c r="M11" s="29">
+      <c r="M11" s="44">
         <v>5</v>
       </c>
-      <c r="N11" s="29" t="s">
+      <c r="N11" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="O11" s="24" t="s">
+      <c r="O11" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="P11" s="29">
+      <c r="P11" s="14">
         <v>3</v>
       </c>
-      <c r="Q11" s="30" t="s">
+      <c r="Q11" s="54" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="6">
         <v>18</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="I12" s="18" t="s">
+      <c r="I12" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="J12" s="17" t="s">
+      <c r="J12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="K12" s="18" t="s">
+      <c r="K12" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="L12" s="28">
+      <c r="L12" s="13">
         <v>2</v>
       </c>
-      <c r="M12" s="29">
+      <c r="M12" s="44">
         <v>5</v>
       </c>
-      <c r="N12" s="29" t="s">
+      <c r="N12" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="O12" s="24" t="s">
+      <c r="O12" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="P12" s="29">
+      <c r="P12" s="14">
         <v>2</v>
       </c>
-      <c r="Q12" s="30" t="s">
+      <c r="Q12" s="54" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="B13" s="17"/>
-      <c r="C13" s="16" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="6">
         <v>23</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="24" t="s">
+      <c r="G13" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="H13" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="I13" s="18" t="s">
+      <c r="I13" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="J13" s="17" t="s">
+      <c r="J13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="K13" s="18" t="s">
+      <c r="K13" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="L13" s="28">
+      <c r="L13" s="13">
         <v>3</v>
       </c>
-      <c r="M13" s="29">
+      <c r="M13" s="44">
         <v>4</v>
       </c>
-      <c r="N13" s="29" t="s">
+      <c r="N13" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="O13" s="24" t="s">
+      <c r="O13" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="P13" s="29">
+      <c r="P13" s="14">
         <v>3</v>
       </c>
-      <c r="Q13" s="30" t="s">
+      <c r="Q13" s="54" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="20"/>
-      <c r="C14" s="21" t="s">
+      <c r="B14" s="9"/>
+      <c r="C14" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="10">
         <v>19</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="F14" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="21" t="s">
+      <c r="G14" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="H14" s="21" t="s">
+      <c r="H14" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="I14" s="22" t="s">
+      <c r="I14" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="J14" s="23" t="s">
+      <c r="J14" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="K14" s="54" t="s">
+      <c r="K14" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="L14" s="31">
+      <c r="L14" s="15">
         <v>2</v>
       </c>
-      <c r="M14" s="32">
+      <c r="M14" s="45">
         <v>5</v>
       </c>
-      <c r="N14" s="32" t="s">
+      <c r="N14" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="O14" s="25" t="s">
+      <c r="O14" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="P14" s="32">
+      <c r="P14" s="16">
         <v>2</v>
       </c>
-      <c r="Q14" s="33" t="s">
+      <c r="Q14" s="55" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="43"/>
-      <c r="P16" s="44"/>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B17" s="45" t="s">
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="19"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B17" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="46"/>
-      <c r="N17" s="46"/>
-      <c r="O17" s="46"/>
-      <c r="P17" s="47"/>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18" s="45"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="46"/>
-      <c r="N18" s="46"/>
-      <c r="O18" s="46"/>
-      <c r="P18" s="47"/>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="45"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="46"/>
-      <c r="O19" s="46"/>
-      <c r="P19" s="47"/>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="45"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="46"/>
-      <c r="N20" s="46"/>
-      <c r="O20" s="46"/>
-      <c r="P20" s="47"/>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B21" s="45"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="46"/>
-      <c r="N21" s="46"/>
-      <c r="O21" s="46"/>
-      <c r="P21" s="47"/>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B22" s="45"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="46"/>
-      <c r="N22" s="46"/>
-      <c r="O22" s="46"/>
-      <c r="P22" s="47"/>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B23" s="45"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="46"/>
-      <c r="N23" s="46"/>
-      <c r="O23" s="46"/>
-      <c r="P23" s="47"/>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B24" s="45"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="46"/>
-      <c r="N24" s="46"/>
-      <c r="O24" s="46"/>
-      <c r="P24" s="47"/>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B25" s="45"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="46"/>
-      <c r="N25" s="46"/>
-      <c r="O25" s="46"/>
-      <c r="P25" s="47"/>
-    </row>
-    <row r="26" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="48"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="49"/>
-      <c r="N26" s="49"/>
-      <c r="O26" s="49"/>
-      <c r="P26" s="50"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="22"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B18" s="20"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="22"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="22"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B20" s="20"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="22"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B21" s="20"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="22"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B22" s="20"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="22"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B23" s="20"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="22"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B24" s="20"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="22"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B25" s="20"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="22"/>
+    </row>
+    <row r="26" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="23"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="25"/>
+    </row>
+    <row r="28" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>96</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
